--- a/data_year/zb/能源/生活能源消费量.xlsx
+++ b/data_year/zb/能源/生活能源消费量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,621 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.32</v>
+        <v>226.895699521103</v>
       </c>
       <c r="C2" t="n">
-        <v>858.34</v>
+        <v>1537.0057507272</v>
       </c>
       <c r="D2" t="n">
-        <v>23234.03</v>
+        <v>67410.2255580022</v>
       </c>
       <c r="E2" t="n">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F2" t="n">
-        <v>72.17</v>
+        <v>20.52</v>
       </c>
       <c r="G2" t="n">
-        <v>8456.959999999999</v>
+        <v>9159.17354848992</v>
       </c>
       <c r="H2" t="n">
-        <v>1451.95</v>
+        <v>5124.63</v>
       </c>
       <c r="I2" t="n">
-        <v>16695.0470827053</v>
+        <v>36469.6317323662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.11</v>
+        <v>264.382215299388</v>
       </c>
       <c r="C3" t="n">
-        <v>1006.04</v>
+        <v>1607.15115577086</v>
       </c>
       <c r="D3" t="n">
-        <v>23369.4</v>
+        <v>70043.9413470624</v>
       </c>
       <c r="E3" t="n">
-        <v>118.98</v>
+        <v>146</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>23.48</v>
       </c>
       <c r="G3" t="n">
-        <v>8410.25</v>
+        <v>9212.05546075012</v>
       </c>
       <c r="H3" t="n">
-        <v>1609.23</v>
+        <v>5620.06</v>
       </c>
       <c r="I3" t="n">
-        <v>16183.0697154645</v>
+        <v>39583.6629270935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.16</v>
+        <v>288.274352798155</v>
       </c>
       <c r="C4" t="n">
-        <v>1169.05</v>
+        <v>1635.38328276554</v>
       </c>
       <c r="D4" t="n">
-        <v>26613.07</v>
+        <v>77607.5036577274</v>
       </c>
       <c r="E4" t="n">
-        <v>124.73</v>
+        <v>137</v>
       </c>
       <c r="F4" t="n">
-        <v>40.7</v>
+        <v>25.58</v>
       </c>
       <c r="G4" t="n">
-        <v>8412.639999999999</v>
+        <v>9253.441921571861</v>
       </c>
       <c r="H4" t="n">
-        <v>1771.42</v>
+        <v>6218.96</v>
       </c>
       <c r="I4" t="n">
-        <v>17162.4620020478</v>
+        <v>42305.8386981445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.89</v>
+        <v>322.929733175705</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.73</v>
+        <v>1845.57833490432</v>
       </c>
       <c r="D5" t="n">
-        <v>33666</v>
+        <v>81471.9538771911</v>
       </c>
       <c r="E5" t="n">
-        <v>131.11</v>
+        <v>107</v>
       </c>
       <c r="F5" t="n">
-        <v>36.38</v>
+        <v>27.92</v>
       </c>
       <c r="G5" t="n">
-        <v>9004.709999999999</v>
+        <v>9289.83495012706</v>
       </c>
       <c r="H5" t="n">
-        <v>2058.04</v>
+        <v>6989.16</v>
       </c>
       <c r="I5" t="n">
-        <v>19764.6622652708</v>
+        <v>45530.8401351548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.22</v>
+        <v>342.58</v>
       </c>
       <c r="C6" t="n">
-        <v>1350.480948</v>
+        <v>2173</v>
       </c>
       <c r="D6" t="n">
-        <v>41394.86</v>
+        <v>86482</v>
       </c>
       <c r="E6" t="n">
-        <v>138.08</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>27.358962</v>
+        <v>28.85</v>
       </c>
       <c r="G6" t="n">
-        <v>9768.196443000001</v>
+        <v>9303</v>
       </c>
       <c r="H6" t="n">
-        <v>2384.488383</v>
+        <v>7176.1</v>
       </c>
       <c r="I6" t="n">
-        <v>22768.4097995442</v>
+        <v>47211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.43000000000001</v>
+        <v>360</v>
       </c>
       <c r="C7" t="n">
-        <v>1328.740942</v>
+        <v>2549</v>
       </c>
       <c r="D7" t="n">
-        <v>52043.575</v>
+        <v>93841</v>
       </c>
       <c r="E7" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>25.46</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>10038.970845</v>
+        <v>9627</v>
       </c>
       <c r="H7" t="n">
-        <v>2884.81</v>
+        <v>7565</v>
       </c>
       <c r="I7" t="n">
-        <v>27572.9003516132</v>
+        <v>50461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.615819</v>
+        <v>380</v>
       </c>
       <c r="C8" t="n">
-        <v>1456.2</v>
+        <v>2955</v>
       </c>
       <c r="D8" t="n">
-        <v>56948.38</v>
+        <v>98623</v>
       </c>
       <c r="E8" t="n">
-        <v>166.37</v>
+        <v>63</v>
       </c>
       <c r="F8" t="n">
-        <v>22.728</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>10036.3410702038</v>
+        <v>9492</v>
       </c>
       <c r="H8" t="n">
-        <v>3351.58147</v>
+        <v>8421</v>
       </c>
       <c r="I8" t="n">
-        <v>27765.1619148339</v>
+        <v>54336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143.3861647</v>
+        <v>420</v>
       </c>
       <c r="C9" t="n">
-        <v>1638</v>
+        <v>3225</v>
       </c>
       <c r="D9" t="n">
-        <v>57689</v>
+        <v>106330</v>
       </c>
       <c r="E9" t="n">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
-        <v>19.4806</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>9760.612878303969</v>
+        <v>9283</v>
       </c>
       <c r="H9" t="n">
-        <v>4062.71</v>
+        <v>9072</v>
       </c>
       <c r="I9" t="n">
-        <v>30813.9</v>
+        <v>57459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.1</v>
+        <v>468</v>
       </c>
       <c r="C10" t="n">
-        <v>1457</v>
+        <v>3147</v>
       </c>
       <c r="D10" t="n">
-        <v>62765.13</v>
+        <v>121684</v>
       </c>
       <c r="E10" t="n">
-        <v>183.87</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
-        <v>12.68095</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>9147.610893995359</v>
+        <v>7714</v>
       </c>
       <c r="H10" t="n">
-        <v>4396.1</v>
+        <v>10058</v>
       </c>
       <c r="I10" t="n">
-        <v>31898.3223911031</v>
+        <v>60436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.67</v>
+        <v>502.32</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.7</v>
+        <v>2855</v>
       </c>
       <c r="D11" t="n">
-        <v>67000.32000000001</v>
+        <v>128832</v>
       </c>
       <c r="E11" t="n">
-        <v>166.32</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>20.23</v>
+        <v>23.43</v>
       </c>
       <c r="G11" t="n">
-        <v>9122</v>
+        <v>6547</v>
       </c>
       <c r="H11" t="n">
-        <v>4872.16</v>
+        <v>10637</v>
       </c>
       <c r="I11" t="n">
-        <v>35173</v>
+        <v>61709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226.8956995211</v>
+        <v>559.97</v>
       </c>
       <c r="C12" t="n">
-        <v>1537.0057507272</v>
+        <v>2860.35</v>
       </c>
       <c r="D12" t="n">
-        <v>67410.2255580022</v>
+        <v>141349.38</v>
       </c>
       <c r="E12" t="n">
-        <v>167</v>
+        <v>49.7</v>
       </c>
       <c r="F12" t="n">
-        <v>20.52</v>
+        <v>12.42</v>
       </c>
       <c r="G12" t="n">
-        <v>9159.1735484899</v>
+        <v>6282.66</v>
       </c>
       <c r="H12" t="n">
-        <v>5124.63</v>
+        <v>11396.48</v>
       </c>
       <c r="I12" t="n">
-        <v>36469.6317323662</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>264.38</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1607.15115577086</v>
-      </c>
-      <c r="D13" t="n">
-        <v>70043.9413470624</v>
-      </c>
-      <c r="E13" t="n">
-        <v>146</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9212</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5620.06</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39584</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>288.27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1635.38328276554</v>
-      </c>
-      <c r="D14" t="n">
-        <v>77607.5036577274</v>
-      </c>
-      <c r="E14" t="n">
-        <v>137</v>
-      </c>
-      <c r="F14" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9253</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6218.96</v>
-      </c>
-      <c r="I14" t="n">
-        <v>42306</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>322.93</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1845.57833490432</v>
-      </c>
-      <c r="D15" t="n">
-        <v>81471.9538771911</v>
-      </c>
-      <c r="E15" t="n">
-        <v>107</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9290</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6989.16</v>
-      </c>
-      <c r="I15" t="n">
-        <v>45531</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>342.58</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2173</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86482</v>
-      </c>
-      <c r="E16" t="n">
-        <v>97</v>
-      </c>
-      <c r="F16" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9303</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7176.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47211</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>360</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2549</v>
-      </c>
-      <c r="D17" t="n">
-        <v>93841</v>
-      </c>
-      <c r="E17" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9627</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7565</v>
-      </c>
-      <c r="I17" t="n">
-        <v>50461</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>380</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2955</v>
-      </c>
-      <c r="D18" t="n">
-        <v>98623</v>
-      </c>
-      <c r="E18" t="n">
-        <v>63</v>
-      </c>
-      <c r="F18" t="n">
-        <v>26</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9492</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8421</v>
-      </c>
-      <c r="I18" t="n">
-        <v>54336</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>420</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3225</v>
-      </c>
-      <c r="D19" t="n">
-        <v>106330</v>
-      </c>
-      <c r="E19" t="n">
-        <v>52</v>
-      </c>
-      <c r="F19" t="n">
-        <v>28</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9283</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9072</v>
-      </c>
-      <c r="I19" t="n">
-        <v>57459</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>468</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3147</v>
-      </c>
-      <c r="D20" t="n">
-        <v>121684</v>
-      </c>
-      <c r="E20" t="n">
-        <v>47</v>
-      </c>
-      <c r="F20" t="n">
-        <v>25</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7714</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10058</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60436</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>502.32</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2855</v>
-      </c>
-      <c r="D21" t="n">
-        <v>128832</v>
-      </c>
-      <c r="E21" t="n">
-        <v>46</v>
-      </c>
-      <c r="F21" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6547</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10637</v>
-      </c>
-      <c r="I21" t="n">
-        <v>61709</v>
+        <v>64380.34</v>
       </c>
     </row>
   </sheetData>
